--- a/private/backlog/Backlog.xlsx
+++ b/private/backlog/Backlog.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Sousa\Downloads\Grupo_1_Pi_Github\InvTracker_PI\backlog planilha\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natta\OneDrive\Área de Trabalho\CCOK\grupo pi\InvTracker\private\backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3769C8BD-C96D-47A2-B2C8-1F3672B61124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283927A3-EF01-4C22-B4AD-00DBE2EB7CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E5380FA4-F023-4187-95B3-E59589C08FBC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E5380FA4-F023-4187-95B3-E59589C08FBC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Backlog &amp; BurnDown" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$AG$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Backlog &amp; BurnDown'!$A$1:$AG$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="112">
   <si>
     <t>Requisito</t>
   </si>
@@ -337,6 +336,42 @@
   </si>
   <si>
     <t>Restante</t>
+  </si>
+  <si>
+    <t>Manual de Instalação</t>
+  </si>
+  <si>
+    <t>Documentação Final</t>
+  </si>
+  <si>
+    <t>Documentação de Gestão de mudanças- GMUD</t>
+  </si>
+  <si>
+    <t>Views BD</t>
+  </si>
+  <si>
+    <t>Criar um do documento de instrução para o cliente, detalhando o passo a passo que deve ser seguido para instalação do nosso sistema</t>
+  </si>
+  <si>
+    <t>Revisar documentação e adcionar diagramas e fluxogramas no documento</t>
+  </si>
+  <si>
+    <t>Realizar documentação para gerenciamento e controle de mudanças.</t>
+  </si>
+  <si>
+    <t>Criar e utilizar uma View virtualizando o select do nosso banco de dados.</t>
+  </si>
+  <si>
+    <t>Fluxogramas</t>
+  </si>
+  <si>
+    <t>Plataforma de service desk no Jira</t>
+  </si>
+  <si>
+    <t>Desenvolver plataforma de atendimento ao cliente no Jira.</t>
+  </si>
+  <si>
+    <t>Realizar 3 fluxogramas sobre incidentes, problema e requisição.</t>
   </si>
 </sst>
 </file>
@@ -558,55 +593,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -618,20 +649,20 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,7 +761,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$C$40</c:f>
+              <c:f>'Backlog &amp; BurnDown'!$C$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -753,7 +784,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha1!$B$41:$B$43</c:f>
+              <c:f>'Backlog &amp; BurnDown'!$B$48:$B$50</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -770,15 +801,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$C$41:$C$43</c:f>
+              <c:f>'Backlog &amp; BurnDown'!$C$48:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>407</c:v>
+                  <c:v>475</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>203.5</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -798,7 +829,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$I$40</c:f>
+              <c:f>'Backlog &amp; BurnDown'!$I$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -821,7 +852,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha1!$B$41:$B$43</c:f>
+              <c:f>'Backlog &amp; BurnDown'!$B$48:$B$50</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -838,18 +869,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$I$41:$I$43</c:f>
+              <c:f>'Backlog &amp; BurnDown'!$I$48:$I$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>357</c:v>
+                  <c:v>307</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>149</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>149</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -928,7 +959,7 @@
         <c:axId val="1852765903"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="407"/>
+          <c:max val="500"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1619,15 +1650,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>34738</xdr:rowOff>
+      <xdr:colOff>11108</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>14860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>493058</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>43703</xdr:rowOff>
+      <xdr:colOff>347284</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>136469</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1974,1991 +2005,2321 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC402853-6496-4AB0-A4DF-4B5CCD4A1E2C}">
   <dimension ref="A1:AG54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49:J49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="32" max="32" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="32" max="32" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:33" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="1" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1" t="s">
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1" t="s">
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1" t="s">
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1" t="s">
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AG1" s="1"/>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG1" s="6"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="3" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="2" t="s">
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2">
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5">
         <v>8</v>
       </c>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2">
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5">
         <v>2</v>
       </c>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2" t="s">
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AG2" s="2"/>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG2" s="5"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="3" t="s">
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="2" t="s">
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2">
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5">
         <v>5</v>
       </c>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2">
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5">
         <v>2</v>
       </c>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2" t="s">
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AG3" s="2"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG3" s="5"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="3" t="s">
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="2" t="s">
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2">
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5">
         <v>8</v>
       </c>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2">
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5">
         <v>2</v>
       </c>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2" t="s">
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AG4" s="2"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG4" s="5"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="3" t="s">
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="2" t="s">
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2">
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5">
         <v>5</v>
       </c>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2">
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5">
         <v>2</v>
       </c>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2" t="s">
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AG5" s="2"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG5" s="5"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="3" t="s">
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="2" t="s">
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2">
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5">
         <v>8</v>
       </c>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2">
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5">
         <v>2</v>
       </c>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2" t="s">
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AG6" s="2"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG6" s="5"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="3" t="s">
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="2" t="s">
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2">
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5">
         <v>13</v>
       </c>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2">
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5">
         <v>2</v>
       </c>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2" t="s">
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AG7" s="2"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG7" s="5"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="3" t="s">
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="2" t="s">
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2">
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5">
         <v>8</v>
       </c>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2">
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5">
         <v>2</v>
       </c>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2" t="s">
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AG8" s="2"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG8" s="5"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="3" t="s">
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="2" t="s">
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2">
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5">
         <v>21</v>
       </c>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2">
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5">
         <v>2</v>
       </c>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2" t="s">
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AG9" s="2"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG9" s="5"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="3" t="s">
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="2" t="s">
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2">
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5">
         <v>21</v>
       </c>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2">
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5">
         <v>2</v>
       </c>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2" t="s">
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AG10" s="2"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG10" s="5"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="3" t="s">
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="2" t="s">
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2">
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5">
         <v>3</v>
       </c>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2">
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5">
         <v>2</v>
       </c>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2" t="s">
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AG11" s="2"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG11" s="5"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="3" t="s">
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="2" t="s">
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2">
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5">
         <v>13</v>
       </c>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2">
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5">
         <v>1</v>
       </c>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2" t="s">
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AG12" s="2"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG12" s="5"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="3" t="s">
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="2" t="s">
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2">
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5">
         <v>13</v>
       </c>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2">
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5">
         <v>2</v>
       </c>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="2" t="s">
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AG13" s="2"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG13" s="5"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="3" t="s">
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="2" t="s">
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2">
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5">
         <v>21</v>
       </c>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2">
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5">
         <v>2</v>
       </c>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2" t="s">
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AG14" s="2"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG14" s="5"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="4" t="s">
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="2" t="s">
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2">
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5">
         <v>13</v>
       </c>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="2">
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5">
         <v>3</v>
       </c>
-      <c r="AE15" s="2"/>
-      <c r="AF15" s="2" t="s">
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AG15" s="2"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG15" s="5"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="3" t="s">
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="2" t="s">
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2">
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5">
         <v>5</v>
       </c>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2">
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5">
         <v>2</v>
       </c>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="2" t="s">
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AG16" s="2"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG16" s="5"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="3" t="s">
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="2" t="s">
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2">
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5">
         <v>8</v>
       </c>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="2">
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5">
         <v>1</v>
       </c>
-      <c r="AE17" s="2"/>
-      <c r="AF17" s="2" t="s">
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AG17" s="2"/>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG17" s="5"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="3" t="s">
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="2" t="s">
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2">
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5">
         <v>13</v>
       </c>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2">
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5">
         <v>3</v>
       </c>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="2" t="s">
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AG18" s="2"/>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG18" s="5"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="3" t="s">
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="2" t="s">
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2">
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5">
         <v>13</v>
       </c>
-      <c r="AC19" s="2"/>
-      <c r="AD19" s="2">
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5">
         <v>3</v>
       </c>
-      <c r="AE19" s="2"/>
-      <c r="AF19" s="2" t="s">
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AG19" s="2"/>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG19" s="5"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="3" t="s">
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="2" t="s">
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2">
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5">
         <v>13</v>
       </c>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2">
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5">
         <v>3</v>
       </c>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="2" t="s">
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AG20" s="2"/>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG20" s="5"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="3" t="s">
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="2" t="s">
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2">
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5">
         <v>21</v>
       </c>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="2">
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5">
         <v>3</v>
       </c>
-      <c r="AE21" s="2"/>
-      <c r="AF21" s="2" t="s">
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AG21" s="2"/>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG21" s="5"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="3" t="s">
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="2" t="s">
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2">
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5">
         <v>3</v>
       </c>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2">
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5">
         <v>2</v>
       </c>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="2" t="s">
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AG22" s="2"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG22" s="5"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="3" t="s">
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="2" t="s">
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2">
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5">
         <v>21</v>
       </c>
-      <c r="AC23" s="2"/>
-      <c r="AD23" s="2">
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5">
         <v>2</v>
       </c>
-      <c r="AE23" s="2"/>
-      <c r="AF23" s="2" t="s">
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AG23" s="2"/>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG23" s="5"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
       <c r="G24" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="3" t="s">
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="2" t="s">
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2">
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5">
         <v>21</v>
       </c>
-      <c r="AC24" s="2"/>
-      <c r="AD24" s="2">
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5">
         <v>2</v>
       </c>
-      <c r="AE24" s="2"/>
-      <c r="AF24" s="2" t="s">
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AG24" s="2"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG24" s="5"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="3" t="s">
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="2" t="s">
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AA25" s="2"/>
-      <c r="AB25" s="2">
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5">
         <v>8</v>
       </c>
-      <c r="AC25" s="2"/>
-      <c r="AD25" s="2">
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5">
         <v>2</v>
       </c>
-      <c r="AE25" s="2"/>
-      <c r="AF25" s="2" t="s">
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AG25" s="2"/>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG25" s="5"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="5" t="s">
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="2" t="s">
+      <c r="X26" s="20"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2">
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5">
         <v>13</v>
       </c>
-      <c r="AC26" s="2"/>
-      <c r="AD26" s="2">
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5">
         <v>3</v>
       </c>
-      <c r="AE26" s="2"/>
-      <c r="AF26" s="2" t="s">
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AG26" s="2"/>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG26" s="5"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="5" t="s">
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="2" t="s">
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AA27" s="2"/>
-      <c r="AB27" s="2">
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5">
         <v>13</v>
       </c>
-      <c r="AC27" s="2"/>
-      <c r="AD27" s="2">
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5">
         <v>3</v>
       </c>
-      <c r="AE27" s="2"/>
-      <c r="AF27" s="2" t="s">
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AG27" s="2"/>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG27" s="5"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="4" t="s">
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="2" t="s">
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2">
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5">
         <v>8</v>
       </c>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="2">
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5">
         <v>1</v>
       </c>
-      <c r="AE28" s="2"/>
-      <c r="AF28" s="2" t="s">
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AG28" s="2"/>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG28" s="5"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="4" t="s">
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="2" t="s">
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AA29" s="2"/>
-      <c r="AB29" s="2">
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5">
         <v>5</v>
       </c>
-      <c r="AC29" s="2"/>
-      <c r="AD29" s="2">
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5">
         <v>3</v>
       </c>
-      <c r="AE29" s="2"/>
-      <c r="AF29" s="2" t="s">
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AG29" s="2"/>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG29" s="5"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="5" t="s">
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="2" t="s">
+      <c r="X30" s="20"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2">
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5">
         <v>5</v>
       </c>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="2">
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5">
         <v>2</v>
       </c>
-      <c r="AE30" s="2"/>
-      <c r="AF30" s="2" t="s">
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AG30" s="2"/>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG30" s="5"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="9"/>
       <c r="G31" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="5" t="s">
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="2" t="s">
+      <c r="X31" s="20"/>
+      <c r="Y31" s="20"/>
+      <c r="Z31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="2">
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5">
         <v>3</v>
       </c>
-      <c r="AC31" s="2"/>
-      <c r="AD31" s="2">
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5">
         <v>2</v>
       </c>
-      <c r="AE31" s="2"/>
-      <c r="AF31" s="2" t="s">
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AG31" s="2"/>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG31" s="5"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="9"/>
       <c r="G32" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="5" t="s">
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="2" t="s">
+      <c r="X32" s="20"/>
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="2">
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5">
         <v>8</v>
       </c>
-      <c r="AC32" s="2"/>
-      <c r="AD32" s="2">
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5">
         <v>3</v>
       </c>
-      <c r="AE32" s="2"/>
-      <c r="AF32" s="2" t="s">
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AG32" s="2"/>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG32" s="5"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="9"/>
       <c r="G33" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="4" t="s">
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="2" t="s">
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AA33" s="2"/>
-      <c r="AB33" s="2">
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5">
         <v>8</v>
       </c>
-      <c r="AC33" s="2"/>
-      <c r="AD33" s="2">
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5">
         <v>1</v>
       </c>
-      <c r="AE33" s="2"/>
-      <c r="AF33" s="2" t="s">
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AG33" s="2"/>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG33" s="5"/>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="9"/>
       <c r="G34" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="5" t="s">
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="2" t="s">
+      <c r="X34" s="20"/>
+      <c r="Y34" s="20"/>
+      <c r="Z34" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="2">
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5">
         <v>8</v>
       </c>
-      <c r="AC34" s="2"/>
-      <c r="AD34" s="2">
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5">
         <v>3</v>
       </c>
-      <c r="AE34" s="2"/>
-      <c r="AF34" s="2" t="s">
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AG34" s="2"/>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG34" s="5"/>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9"/>
       <c r="G35" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="5" t="s">
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="2" t="s">
+      <c r="X35" s="20"/>
+      <c r="Y35" s="20"/>
+      <c r="Z35" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AA35" s="2"/>
-      <c r="AB35" s="2">
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5">
         <v>8</v>
       </c>
-      <c r="AC35" s="2"/>
-      <c r="AD35" s="2">
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5">
         <v>3</v>
       </c>
-      <c r="AE35" s="2"/>
-      <c r="AF35" s="2" t="s">
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AG35" s="2"/>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG35" s="5"/>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9"/>
       <c r="G36" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="3" t="s">
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="2" t="s">
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AA36" s="2"/>
-      <c r="AB36" s="2">
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5">
         <v>21</v>
       </c>
-      <c r="AC36" s="2"/>
-      <c r="AD36" s="2">
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5">
         <v>3</v>
       </c>
-      <c r="AE36" s="2"/>
-      <c r="AF36" s="2" t="s">
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AG36" s="2"/>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG36" s="5"/>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="10" t="s">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11"/>
-      <c r="V37" s="12"/>
-      <c r="W37" s="4" t="s">
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
-      <c r="Z37" s="2" t="s">
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AA37" s="2"/>
-      <c r="AB37" s="2">
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5">
         <v>8</v>
       </c>
-      <c r="AC37" s="2"/>
-      <c r="AD37" s="2">
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5">
         <v>2</v>
       </c>
-      <c r="AE37" s="2"/>
-      <c r="AF37" s="2" t="s">
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AG37" s="2"/>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG37" s="5"/>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="9"/>
       <c r="G38" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="4" t="s">
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
-      <c r="Z38" s="2" t="s">
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AA38" s="2"/>
-      <c r="AB38" s="2">
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5">
         <v>13</v>
       </c>
-      <c r="AC38" s="2"/>
-      <c r="AD38" s="2">
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5">
         <v>1</v>
       </c>
-      <c r="AE38" s="2"/>
-      <c r="AF38" s="2" t="s">
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AG38" s="2"/>
-    </row>
-    <row r="40" spans="1:33" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="25" t="s">
+      <c r="AG38" s="5"/>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5">
+        <v>13</v>
+      </c>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5">
+        <v>3</v>
+      </c>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG39" s="5"/>
+    </row>
+    <row r="40" spans="1:33" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="7">
+        <v>8</v>
+      </c>
+      <c r="AC40" s="9"/>
+      <c r="AD40" s="5">
+        <v>3</v>
+      </c>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG40" s="5"/>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5">
+        <v>8</v>
+      </c>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="7">
+        <v>3</v>
+      </c>
+      <c r="AE41" s="9"/>
+      <c r="AF41" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG41" s="5"/>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5">
+        <v>13</v>
+      </c>
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="7">
+        <v>3</v>
+      </c>
+      <c r="AE42" s="9"/>
+      <c r="AF42" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG42" s="5"/>
+    </row>
+    <row r="43" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5">
+        <v>5</v>
+      </c>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="7">
+        <v>3</v>
+      </c>
+      <c r="AE43" s="9"/>
+      <c r="AF43" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG43" s="5"/>
+    </row>
+    <row r="44" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5">
+        <v>21</v>
+      </c>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="7">
+        <v>3</v>
+      </c>
+      <c r="AE44" s="9"/>
+      <c r="AF44" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG44" s="5"/>
+    </row>
+    <row r="45" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="7"/>
+      <c r="AE45" s="9"/>
+      <c r="AF45" s="5"/>
+      <c r="AG45" s="5"/>
+    </row>
+    <row r="47" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C47" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="19" t="s">
+      <c r="D47" s="16"/>
+      <c r="E47" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="F40" s="19"/>
-      <c r="G40" s="20" t="s">
+      <c r="F47" s="17"/>
+      <c r="G47" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="H40" s="20"/>
-      <c r="I40" s="21" t="s">
+      <c r="H47" s="18"/>
+      <c r="I47" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="J40" s="21"/>
-    </row>
-    <row r="41" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="16" t="s">
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="14">
-        <f xml:space="preserve"> $C$44</f>
-        <v>407</v>
-      </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="22">
-        <v>50</v>
-      </c>
-      <c r="F41" s="22"/>
-      <c r="G41" s="23">
+      <c r="C48" s="12">
+        <v>475</v>
+      </c>
+      <c r="D48" s="13"/>
+      <c r="E48" s="14">
+        <f>SUM(AB12:AC38)</f>
+        <v>307</v>
+      </c>
+      <c r="F48" s="14"/>
+      <c r="G48" s="15">
         <v>0</v>
       </c>
-      <c r="H41" s="23"/>
-      <c r="I41" s="24">
-        <v>357</v>
-      </c>
-      <c r="J41" s="24"/>
-    </row>
-    <row r="42" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="16" t="s">
+      <c r="H48" s="15"/>
+      <c r="I48" s="22">
+        <v>307</v>
+      </c>
+      <c r="J48" s="23"/>
+    </row>
+    <row r="49" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="14">
-        <v>203.5</v>
-      </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="22">
-        <v>208</v>
-      </c>
-      <c r="F42" s="22"/>
-      <c r="G42" s="23">
+      <c r="C49" s="12">
+        <v>149</v>
+      </c>
+      <c r="D49" s="13"/>
+      <c r="E49" s="14">
+        <f>SUM(AB2:AC37)</f>
+        <v>394</v>
+      </c>
+      <c r="F49" s="14"/>
+      <c r="G49" s="15">
         <v>0</v>
       </c>
-      <c r="H42" s="23"/>
-      <c r="I42" s="24">
+      <c r="H49" s="21"/>
+      <c r="I49" s="22">
+        <f>94-7</f>
+        <v>87</v>
+      </c>
+      <c r="J49" s="23"/>
+    </row>
+    <row r="50" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="12">
+        <v>0</v>
+      </c>
+      <c r="D50" s="13"/>
+      <c r="E50" s="14">
+        <f>SUM(AB15:AC44)</f>
+        <v>328</v>
+      </c>
+      <c r="F50" s="14"/>
+      <c r="G50" s="15">
         <v>149</v>
       </c>
-      <c r="J42" s="24"/>
-    </row>
-    <row r="43" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C43" s="14">
-        <v>0</v>
-      </c>
-      <c r="D43" s="15"/>
-      <c r="E43" s="22">
-        <v>100</v>
-      </c>
-      <c r="F43" s="22"/>
-      <c r="G43" s="23">
-        <v>149</v>
-      </c>
-      <c r="H43" s="23"/>
-      <c r="I43" s="24">
-        <v>149</v>
-      </c>
-      <c r="J43" s="24"/>
-      <c r="AF43" s="6"/>
-      <c r="AG43" s="6"/>
-    </row>
-    <row r="44" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="16" t="s">
+      <c r="H50" s="15"/>
+      <c r="I50" s="22">
+        <f>394-328</f>
+        <v>66</v>
+      </c>
+      <c r="J50" s="23"/>
+    </row>
+    <row r="51" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="17">
-        <f>SUM(AB2:AC38)</f>
-        <v>407</v>
-      </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-    </row>
-    <row r="45" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C51" s="3">
+        <f>SUM(AB2:AC44)</f>
+        <v>475</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:AG38" xr:uid="{BC402853-6496-4AB0-A4DF-4B5CCD4A1E2C}">
+  <autoFilter ref="A1:AG44" xr:uid="{BC402853-6496-4AB0-A4DF-4B5CCD4A1E2C}">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
@@ -3986,44 +4347,267 @@
     <filterColumn colId="29" showButton="0"/>
     <filterColumn colId="31" showButton="0"/>
   </autoFilter>
-  <mergeCells count="283">
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="AF38:AG38"/>
-    <mergeCell ref="AF31:AG31"/>
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="AF33:AG33"/>
-    <mergeCell ref="AF34:AG34"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="AF27:AG27"/>
-    <mergeCell ref="AF28:AG28"/>
-    <mergeCell ref="AF29:AG29"/>
-    <mergeCell ref="AF30:AG30"/>
-    <mergeCell ref="AF19:AG19"/>
-    <mergeCell ref="AF20:AG20"/>
-    <mergeCell ref="AF21:AG21"/>
-    <mergeCell ref="AF22:AG22"/>
-    <mergeCell ref="AF23:AG23"/>
-    <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="AF13:AG13"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="AF15:AG15"/>
-    <mergeCell ref="AF16:AG16"/>
-    <mergeCell ref="AF17:AG17"/>
-    <mergeCell ref="AF18:AG18"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="AF11:AG11"/>
-    <mergeCell ref="AF12:AG12"/>
+  <mergeCells count="332">
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:V45"/>
+    <mergeCell ref="W45:Y45"/>
+    <mergeCell ref="Z45:AA45"/>
+    <mergeCell ref="AB45:AC45"/>
+    <mergeCell ref="AF45:AG45"/>
+    <mergeCell ref="AB40:AC40"/>
+    <mergeCell ref="AD45:AE45"/>
+    <mergeCell ref="AD44:AE44"/>
+    <mergeCell ref="AF42:AG42"/>
+    <mergeCell ref="W43:Y43"/>
+    <mergeCell ref="Z43:AA43"/>
+    <mergeCell ref="AB43:AC43"/>
+    <mergeCell ref="AD43:AE43"/>
+    <mergeCell ref="AF43:AG43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:V44"/>
+    <mergeCell ref="W44:Y44"/>
+    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="AF44:AG44"/>
+    <mergeCell ref="AF39:AG39"/>
+    <mergeCell ref="W40:Y40"/>
+    <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="AB41:AC41"/>
+    <mergeCell ref="AD40:AE40"/>
+    <mergeCell ref="AF40:AG40"/>
+    <mergeCell ref="W41:Y41"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="AD41:AE41"/>
+    <mergeCell ref="AF41:AG41"/>
+    <mergeCell ref="G39:V39"/>
+    <mergeCell ref="G40:V40"/>
+    <mergeCell ref="G41:V41"/>
+    <mergeCell ref="G42:V42"/>
+    <mergeCell ref="G43:V43"/>
+    <mergeCell ref="W39:Y39"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="AB39:AC39"/>
+    <mergeCell ref="AD39:AE39"/>
+    <mergeCell ref="W42:Y42"/>
+    <mergeCell ref="Z42:AA42"/>
+    <mergeCell ref="AB42:AC42"/>
+    <mergeCell ref="AD42:AE42"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:V5"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:V4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:V3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:V8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:V7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:V10"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="G9:V9"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:V12"/>
+    <mergeCell ref="W12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:V11"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:V14"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:V13"/>
+    <mergeCell ref="W13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:V16"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:V15"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:V19"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:V18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:V17"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:V20"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:V23"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:V22"/>
+    <mergeCell ref="W22:Y22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:V25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AD25:AE25"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:V24"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:V27"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:V26"/>
+    <mergeCell ref="W26:Y26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:V29"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="AD29:AE29"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:V28"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:V31"/>
+    <mergeCell ref="W31:Y31"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AD31:AE31"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:V30"/>
+    <mergeCell ref="W30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AD32:AE32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:V33"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:V32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="AD34:AE34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:V35"/>
+    <mergeCell ref="W35:Y35"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="AD35:AE35"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:V34"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:V38"/>
+    <mergeCell ref="W38:Y38"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:V37"/>
+    <mergeCell ref="W37:Y37"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:V36"/>
+    <mergeCell ref="W36:Y36"/>
+    <mergeCell ref="Z36:AA36"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F43"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AF3:AG3"/>
@@ -4042,250 +4626,62 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:V38"/>
-    <mergeCell ref="W38:Y38"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="AB38:AC38"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:V37"/>
-    <mergeCell ref="W37:Y37"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="AB37:AC37"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:V36"/>
-    <mergeCell ref="W36:Y36"/>
-    <mergeCell ref="Z36:AA36"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="AD34:AE34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:V35"/>
-    <mergeCell ref="W35:Y35"/>
-    <mergeCell ref="Z35:AA35"/>
-    <mergeCell ref="AB35:AC35"/>
-    <mergeCell ref="AD35:AE35"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:V34"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="AD32:AE32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:V33"/>
-    <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:V32"/>
-    <mergeCell ref="W32:Y32"/>
-    <mergeCell ref="Z32:AA32"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:V31"/>
-    <mergeCell ref="W31:Y31"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AD31:AE31"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:V30"/>
-    <mergeCell ref="W30:Y30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:V29"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="AD29:AE29"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:V28"/>
-    <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:V27"/>
-    <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:V26"/>
-    <mergeCell ref="W26:Y26"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:V25"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:V24"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:V23"/>
-    <mergeCell ref="W23:Y23"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:V22"/>
-    <mergeCell ref="W22:Y22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:V21"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:V20"/>
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:V19"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:V18"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:V17"/>
-    <mergeCell ref="W17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:V16"/>
-    <mergeCell ref="W16:Y16"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:V15"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:V14"/>
-    <mergeCell ref="W14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:V13"/>
-    <mergeCell ref="W13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:V12"/>
-    <mergeCell ref="W12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:V11"/>
-    <mergeCell ref="W11:Y11"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:V10"/>
-    <mergeCell ref="W10:Y10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:V9"/>
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:V8"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:V7"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD5:AE5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="G6:V6"/>
     <mergeCell ref="W6:Y6"/>
     <mergeCell ref="Z6:AA6"/>
     <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:V5"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:V4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:V3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AF13:AG13"/>
+    <mergeCell ref="AF14:AG14"/>
+    <mergeCell ref="AF15:AG15"/>
+    <mergeCell ref="AF16:AG16"/>
+    <mergeCell ref="AF17:AG17"/>
+    <mergeCell ref="AF18:AG18"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="AF11:AG11"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="AF27:AG27"/>
+    <mergeCell ref="AF28:AG28"/>
+    <mergeCell ref="AF29:AG29"/>
+    <mergeCell ref="AF30:AG30"/>
+    <mergeCell ref="AF19:AG19"/>
+    <mergeCell ref="AF20:AG20"/>
+    <mergeCell ref="AF21:AG21"/>
+    <mergeCell ref="AF22:AG22"/>
+    <mergeCell ref="AF23:AG23"/>
+    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="AF38:AG38"/>
+    <mergeCell ref="AF31:AG31"/>
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="AF33:AG33"/>
+    <mergeCell ref="AF34:AG34"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
   </mergeCells>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719BFDF4-4FFB-445A-BBED-D5394895CD43}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AG45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>